--- a/src/test/java/resourses/excelData.xlsx
+++ b/src/test/java/resourses/excelData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>First Name </t>
   </si>
@@ -103,6 +103,21 @@
   </si>
   <si>
     <t>100 Money Way, 400 West</t>
+  </si>
+  <si>
+    <t>merve</t>
+  </si>
+  <si>
+    <t>kosar</t>
+  </si>
+  <si>
+    <t>merve@gmail.com</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>hay</t>
   </si>
 </sst>
 </file>
@@ -526,39 +541,59 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="3">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="3">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="3">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="3">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="3">
         <v>24</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="3">
         <v>25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s" s="3">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s" s="3">
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="3">
         <v>15</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="3">
         <v>16</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="3">
         <v>17</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="3">
         <v>18</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" t="s" s="3">
         <v>19</v>
       </c>
       <c r="F12" s="2" t="s">
